--- a/public_dataset.xlsx
+++ b/public_dataset.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="32000" windowHeight="16460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Paper title</t>
   </si>
@@ -132,6 +133,21 @@
   </si>
   <si>
     <t>Yes https://onlinelibrary.wiley.com/doi/full/10.1002/advs.202104373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gut metagenomic </t>
+  </si>
+  <si>
+    <t>Fecal metabolome</t>
+  </si>
+  <si>
+    <t>Linking microbial genes to plasma and stool metabolites uncovers host-microbial interactions underlying ulcerative colitis disease course</t>
+  </si>
+  <si>
+    <t>Altered metabolome and microbiome features provide clues in understanding irritable bowel syndrome and depression comorbidity</t>
+  </si>
+  <si>
+    <t>Integrative plasma and fecal metabolomics identify functional metabolites in adenoma-colorectal cancer progression and as early diagnostic biomarkers</t>
   </si>
 </sst>
 </file>
@@ -786,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -810,15 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1350,7 +1354,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -1369,42 +1373,41 @@
     <col min="11" max="11" width="16.8269230769231" style="3" customWidth="1"/>
     <col min="12" max="12" width="16.8269230769231" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.7980769230769" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.23076923076923" style="1"/>
-    <col min="16" max="16384" width="9.23076923076923" style="4"/>
+    <col min="14" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1416,42 +1419,42 @@
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1465,37 +1468,37 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>172</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>392</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1509,37 +1512,37 @@
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:16">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>54</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1551,42 +1554,42 @@
       <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>87</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>87</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1621,7 +1624,7 @@
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="3">
@@ -1641,6 +1644,53 @@
       </c>
       <c r="O6" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="34.6153846153846" customWidth="1"/>
+    <col min="2" max="4" width="34.9326923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/public_dataset.xlsx
+++ b/public_dataset.xlsx
@@ -1658,12 +1658,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="34.6153846153846" customWidth="1"/>
+    <col min="1" max="1" width="90.0576923076923" customWidth="1"/>
     <col min="2" max="4" width="34.9326923076923" customWidth="1"/>
   </cols>
   <sheetData>
